--- a/front_end/excel/file.xlsx
+++ b/front_end/excel/file.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\teamproject\front_end\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2305E5-1AC0-41A6-8569-FE8D3445A53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D20076-A42D-4290-8941-0F7BB0094E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="19476" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="question" sheetId="2" r:id="rId1"/>
     <sheet name="menu" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
